--- a/SimulationStudyData/Model2/SimCase9_zsim_SimRun5.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_zsim_SimRun5.xlsx
@@ -363,7 +363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -388,12 +388,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -403,7 +403,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -413,12 +413,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -428,7 +428,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -458,17 +458,17 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -483,27 +483,27 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -523,7 +523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -538,7 +538,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -548,22 +548,22 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -578,7 +578,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -593,7 +593,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -633,7 +633,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -643,7 +643,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -658,7 +658,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -688,12 +688,12 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -713,12 +713,12 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -733,7 +733,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -748,7 +748,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -778,17 +778,17 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -813,7 +813,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -828,12 +828,12 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -858,7 +858,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -883,7 +883,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -898,7 +898,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -938,12 +938,12 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -958,7 +958,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -988,7 +988,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -998,7 +998,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -1038,12 +1038,12 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1073,12 +1073,12 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -1113,7 +1113,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1123,22 +1123,22 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -1218,12 +1218,12 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -1233,12 +1233,12 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -1268,7 +1268,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -1278,12 +1278,12 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1293,12 +1293,12 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -1323,22 +1323,22 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
